--- a/results/overview/summary_all_F1.xlsx
+++ b/results/overview/summary_all_F1.xlsx
@@ -436,62 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>musical_instruments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>office_products</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ikea_reviews</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>automotive</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>drugs</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>twitter</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>luxury_beauty</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>patio_lawn_garden</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>hotel</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>lidl</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>instant_video</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>reddit</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>office_products</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>hotel</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>musical_instruments</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>instant_video</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>twitter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>patio_lawn_garden</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>automotive</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>ikea_reviews</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>lidl</t>
         </is>
       </c>
     </row>
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="C2" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="D2" t="n">
+        <v>60.46</v>
+      </c>
+      <c r="E2" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="F2" t="n">
         <v>17.92</v>
       </c>
-      <c r="C2" t="n">
+      <c r="G2" t="n">
+        <v>56.07</v>
+      </c>
+      <c r="H2" t="n">
         <v>52.91</v>
       </c>
-      <c r="D2" t="n">
+      <c r="I2" t="n">
+        <v>37.53</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.84</v>
+      </c>
+      <c r="K2" t="n">
+        <v>51.33</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="M2" t="n">
         <v>61.4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>41.09</v>
-      </c>
-      <c r="F2" t="n">
-        <v>31.84</v>
-      </c>
-      <c r="G2" t="n">
-        <v>55.15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="I2" t="n">
-        <v>56.07</v>
-      </c>
-      <c r="J2" t="n">
-        <v>37.53</v>
-      </c>
-      <c r="K2" t="n">
-        <v>54.25</v>
-      </c>
-      <c r="L2" t="n">
-        <v>60.46</v>
-      </c>
-      <c r="M2" t="n">
-        <v>51.33</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>58.72</v>
+      </c>
+      <c r="C3" t="n">
+        <v>56.27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="E3" t="n">
+        <v>60.71</v>
+      </c>
+      <c r="F3" t="n">
         <v>37.83</v>
       </c>
-      <c r="C3" t="n">
+      <c r="G3" t="n">
+        <v>78.01000000000001</v>
+      </c>
+      <c r="H3" t="n">
         <v>67.42</v>
       </c>
-      <c r="D3" t="n">
+      <c r="I3" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50.16</v>
+      </c>
+      <c r="K3" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="L3" t="n">
+        <v>56.23</v>
+      </c>
+      <c r="M3" t="n">
         <v>66.95999999999999</v>
-      </c>
-      <c r="E3" t="n">
-        <v>56.27</v>
-      </c>
-      <c r="F3" t="n">
-        <v>50.16</v>
-      </c>
-      <c r="G3" t="n">
-        <v>58.72</v>
-      </c>
-      <c r="H3" t="n">
-        <v>56.23</v>
-      </c>
-      <c r="I3" t="n">
-        <v>78.01000000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>50.43</v>
-      </c>
-      <c r="K3" t="n">
-        <v>60.71</v>
-      </c>
-      <c r="L3" t="n">
-        <v>66.39</v>
-      </c>
-      <c r="M3" t="n">
-        <v>64.09999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>56.07</v>
+      </c>
+      <c r="C4" t="n">
+        <v>46.38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60.76</v>
+      </c>
+      <c r="E4" t="n">
+        <v>55.36</v>
+      </c>
+      <c r="F4" t="n">
         <v>33.99</v>
       </c>
-      <c r="C4" t="n">
+      <c r="G4" t="n">
+        <v>67.69</v>
+      </c>
+      <c r="H4" t="n">
         <v>64.52</v>
       </c>
-      <c r="D4" t="n">
+      <c r="I4" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>39.48</v>
+      </c>
+      <c r="K4" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>45.84</v>
+      </c>
+      <c r="M4" t="n">
         <v>60.37</v>
-      </c>
-      <c r="E4" t="n">
-        <v>46.38</v>
-      </c>
-      <c r="F4" t="n">
-        <v>39.48</v>
-      </c>
-      <c r="G4" t="n">
-        <v>56.07</v>
-      </c>
-      <c r="H4" t="n">
-        <v>45.84</v>
-      </c>
-      <c r="I4" t="n">
-        <v>67.69</v>
-      </c>
-      <c r="J4" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>55.36</v>
-      </c>
-      <c r="L4" t="n">
-        <v>60.76</v>
-      </c>
-      <c r="M4" t="n">
-        <v>58.7</v>
       </c>
     </row>
     <row r="5">
@@ -630,20 +630,42 @@
           <t>LR</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>62.56</v>
+      </c>
+      <c r="C5" t="n">
+        <v>61.17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>71.14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>62.39</v>
+      </c>
+      <c r="F5" t="n">
+        <v>42.32</v>
+      </c>
+      <c r="G5" t="n">
+        <v>80.56</v>
+      </c>
+      <c r="H5" t="n">
+        <v>73.23</v>
+      </c>
+      <c r="I5" t="n">
+        <v>54.35</v>
+      </c>
+      <c r="J5" t="n">
+        <v>52.19</v>
+      </c>
       <c r="K5" t="n">
-        <v>62.39</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+        <v>66.41</v>
+      </c>
+      <c r="L5" t="n">
+        <v>59.57</v>
+      </c>
+      <c r="M5" t="n">
+        <v>70.39</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -652,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>56.52</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50.13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>69.14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>56.83</v>
+      </c>
+      <c r="F6" t="n">
         <v>35.52</v>
       </c>
-      <c r="C6" t="n">
+      <c r="G6" t="n">
+        <v>73.43000000000001</v>
+      </c>
+      <c r="H6" t="n">
         <v>63.67</v>
       </c>
-      <c r="D6" t="n">
+      <c r="I6" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>49.11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>64.54000000000001</v>
+      </c>
+      <c r="L6" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="M6" t="n">
         <v>67.16</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50.13</v>
-      </c>
-      <c r="F6" t="n">
-        <v>49.11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>56.52</v>
-      </c>
-      <c r="H6" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>73.43000000000001</v>
-      </c>
-      <c r="J6" t="n">
-        <v>47.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>56.83</v>
-      </c>
-      <c r="L6" t="n">
-        <v>69.14</v>
-      </c>
-      <c r="M6" t="n">
-        <v>64.54000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -697,15 +719,15 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>63.18</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>63.18</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
     </row>

--- a/results/overview/summary_all_F1.xlsx
+++ b/results/overview/summary_all_F1.xlsx
@@ -436,62 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>drugs</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>twitter</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>musical_instruments</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>instant_video</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>lidl</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>luxury_beauty</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ikea_reviews</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>reddit</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>office_products</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ikea_reviews</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>automotive</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>drugs</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>twitter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>luxury_beauty</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>hotel</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>patio_lawn_garden</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>hotel</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>lidl</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>instant_video</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>reddit</t>
         </is>
       </c>
     </row>
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="C2" t="n">
+        <v>56.07</v>
+      </c>
+      <c r="D2" t="n">
         <v>55.15</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="F2" t="n">
+        <v>51.33</v>
+      </c>
+      <c r="G2" t="n">
+        <v>52.91</v>
+      </c>
+      <c r="H2" t="n">
+        <v>60.46</v>
+      </c>
+      <c r="I2" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="J2" t="n">
         <v>41.09</v>
       </c>
-      <c r="D2" t="n">
-        <v>60.46</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="K2" t="n">
         <v>54.25</v>
       </c>
-      <c r="F2" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="G2" t="n">
-        <v>56.07</v>
-      </c>
-      <c r="H2" t="n">
-        <v>52.91</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>31.84</v>
+      </c>
+      <c r="M2" t="n">
         <v>37.53</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.84</v>
-      </c>
-      <c r="K2" t="n">
-        <v>51.33</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="M2" t="n">
-        <v>61.4</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="C3" t="n">
+        <v>78.01000000000001</v>
+      </c>
+      <c r="D3" t="n">
         <v>58.72</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
+        <v>56.23</v>
+      </c>
+      <c r="F3" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>67.42</v>
+      </c>
+      <c r="H3" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="I3" t="n">
+        <v>66.95999999999999</v>
+      </c>
+      <c r="J3" t="n">
         <v>56.27</v>
       </c>
-      <c r="D3" t="n">
-        <v>66.39</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="K3" t="n">
         <v>60.71</v>
       </c>
-      <c r="F3" t="n">
-        <v>37.83</v>
-      </c>
-      <c r="G3" t="n">
-        <v>78.01000000000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>67.42</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
+        <v>50.16</v>
+      </c>
+      <c r="M3" t="n">
         <v>50.43</v>
-      </c>
-      <c r="J3" t="n">
-        <v>50.16</v>
-      </c>
-      <c r="K3" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>56.23</v>
-      </c>
-      <c r="M3" t="n">
-        <v>66.95999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>33.99</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67.69</v>
+      </c>
+      <c r="D4" t="n">
         <v>56.07</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
+        <v>45.84</v>
+      </c>
+      <c r="F4" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>64.52</v>
+      </c>
+      <c r="H4" t="n">
+        <v>60.76</v>
+      </c>
+      <c r="I4" t="n">
+        <v>60.37</v>
+      </c>
+      <c r="J4" t="n">
         <v>46.38</v>
       </c>
-      <c r="D4" t="n">
-        <v>60.76</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="K4" t="n">
         <v>55.36</v>
       </c>
-      <c r="F4" t="n">
-        <v>33.99</v>
-      </c>
-      <c r="G4" t="n">
-        <v>67.69</v>
-      </c>
-      <c r="H4" t="n">
-        <v>64.52</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
+        <v>39.48</v>
+      </c>
+      <c r="M4" t="n">
         <v>42.8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.48</v>
-      </c>
-      <c r="K4" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>45.84</v>
-      </c>
-      <c r="M4" t="n">
-        <v>60.37</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>42.32</v>
+      </c>
+      <c r="C5" t="n">
+        <v>80.56</v>
+      </c>
+      <c r="D5" t="n">
         <v>62.56</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
+        <v>59.57</v>
+      </c>
+      <c r="F5" t="n">
+        <v>66.41</v>
+      </c>
+      <c r="G5" t="n">
+        <v>73.23</v>
+      </c>
+      <c r="H5" t="n">
+        <v>71.14</v>
+      </c>
+      <c r="I5" t="n">
+        <v>70.39</v>
+      </c>
+      <c r="J5" t="n">
         <v>61.17</v>
       </c>
-      <c r="D5" t="n">
-        <v>71.14</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="K5" t="n">
         <v>62.39</v>
       </c>
-      <c r="F5" t="n">
-        <v>42.32</v>
-      </c>
-      <c r="G5" t="n">
-        <v>80.56</v>
-      </c>
-      <c r="H5" t="n">
-        <v>73.23</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
+        <v>52.19</v>
+      </c>
+      <c r="M5" t="n">
         <v>54.35</v>
-      </c>
-      <c r="J5" t="n">
-        <v>52.19</v>
-      </c>
-      <c r="K5" t="n">
-        <v>66.41</v>
-      </c>
-      <c r="L5" t="n">
-        <v>59.57</v>
-      </c>
-      <c r="M5" t="n">
-        <v>70.39</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>35.52</v>
+      </c>
+      <c r="C6" t="n">
+        <v>73.43000000000001</v>
+      </c>
+      <c r="D6" t="n">
         <v>56.52</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>64.54000000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>63.67</v>
+      </c>
+      <c r="H6" t="n">
+        <v>69.14</v>
+      </c>
+      <c r="I6" t="n">
+        <v>67.16</v>
+      </c>
+      <c r="J6" t="n">
         <v>50.13</v>
       </c>
-      <c r="D6" t="n">
-        <v>69.14</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="K6" t="n">
         <v>56.83</v>
       </c>
-      <c r="F6" t="n">
-        <v>35.52</v>
-      </c>
-      <c r="G6" t="n">
-        <v>73.43000000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>63.67</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
+        <v>49.11</v>
+      </c>
+      <c r="M6" t="n">
         <v>47.1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>49.11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>64.54000000000001</v>
-      </c>
-      <c r="L6" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>67.16</v>
       </c>
     </row>
     <row r="7">
@@ -716,18 +716,20 @@
           <t>SVM</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>46.73</v>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>63.18</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>64.64</v>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
     </row>

--- a/results/overview/summary_all_F1.xlsx
+++ b/results/overview/summary_all_F1.xlsx
@@ -436,62 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>instant_video</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>twitter</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>automotive</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>luxury_beauty</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>patio_lawn_garden</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>musical_instruments</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>reddit</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>office_products</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ikea_reviews</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>hotel</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>drugs</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>twitter</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>musical_instruments</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>instant_video</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>lidl</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>luxury_beauty</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ikea_reviews</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>reddit</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>office_products</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>automotive</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>hotel</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>patio_lawn_garden</t>
         </is>
       </c>
     </row>
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.92</v>
+        <v>41.86</v>
       </c>
       <c r="C2" t="n">
         <v>56.07</v>
       </c>
       <c r="D2" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="E2" t="n">
+        <v>52.91</v>
+      </c>
+      <c r="F2" t="n">
+        <v>37.53</v>
+      </c>
+      <c r="G2" t="n">
         <v>55.15</v>
       </c>
-      <c r="E2" t="n">
-        <v>41.86</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60.46</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.84</v>
+      </c>
+      <c r="L2" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="M2" t="n">
         <v>51.33</v>
-      </c>
-      <c r="G2" t="n">
-        <v>52.91</v>
-      </c>
-      <c r="H2" t="n">
-        <v>60.46</v>
-      </c>
-      <c r="I2" t="n">
-        <v>61.4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>41.09</v>
-      </c>
-      <c r="K2" t="n">
-        <v>54.25</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.84</v>
-      </c>
-      <c r="M2" t="n">
-        <v>37.53</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>56.31</v>
+      </c>
+      <c r="C3" t="n">
+        <v>77.93000000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50.01</v>
+      </c>
+      <c r="G3" t="n">
+        <v>60.54</v>
+      </c>
+      <c r="H3" t="n">
+        <v>67.27</v>
+      </c>
+      <c r="I3" t="n">
+        <v>56.41</v>
+      </c>
+      <c r="J3" t="n">
+        <v>66.84999999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>49.91</v>
+      </c>
+      <c r="L3" t="n">
         <v>37.83</v>
       </c>
-      <c r="C3" t="n">
-        <v>78.01000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>58.72</v>
-      </c>
-      <c r="E3" t="n">
-        <v>56.23</v>
-      </c>
-      <c r="F3" t="n">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="G3" t="n">
-        <v>67.42</v>
-      </c>
-      <c r="H3" t="n">
-        <v>66.39</v>
-      </c>
-      <c r="I3" t="n">
-        <v>66.95999999999999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>56.27</v>
-      </c>
-      <c r="K3" t="n">
-        <v>60.71</v>
-      </c>
-      <c r="L3" t="n">
-        <v>50.16</v>
-      </c>
       <c r="M3" t="n">
-        <v>50.43</v>
+        <v>64.22</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.99</v>
+        <v>45.84</v>
       </c>
       <c r="C4" t="n">
         <v>67.69</v>
       </c>
       <c r="D4" t="n">
+        <v>55.36</v>
+      </c>
+      <c r="E4" t="n">
+        <v>64.52</v>
+      </c>
+      <c r="F4" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="G4" t="n">
         <v>56.07</v>
       </c>
-      <c r="E4" t="n">
-        <v>45.84</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>60.37</v>
+      </c>
+      <c r="I4" t="n">
+        <v>46.38</v>
+      </c>
+      <c r="J4" t="n">
+        <v>60.76</v>
+      </c>
+      <c r="K4" t="n">
+        <v>39.48</v>
+      </c>
+      <c r="L4" t="n">
+        <v>33.99</v>
+      </c>
+      <c r="M4" t="n">
         <v>58.7</v>
-      </c>
-      <c r="G4" t="n">
-        <v>64.52</v>
-      </c>
-      <c r="H4" t="n">
-        <v>60.76</v>
-      </c>
-      <c r="I4" t="n">
-        <v>60.37</v>
-      </c>
-      <c r="J4" t="n">
-        <v>46.38</v>
-      </c>
-      <c r="K4" t="n">
-        <v>55.36</v>
-      </c>
-      <c r="L4" t="n">
-        <v>39.48</v>
-      </c>
-      <c r="M4" t="n">
-        <v>42.8</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.32</v>
+        <v>59.57</v>
       </c>
       <c r="C5" t="n">
         <v>80.56</v>
       </c>
       <c r="D5" t="n">
+        <v>62.39</v>
+      </c>
+      <c r="E5" t="n">
+        <v>73.23</v>
+      </c>
+      <c r="F5" t="n">
+        <v>54.35</v>
+      </c>
+      <c r="G5" t="n">
         <v>62.56</v>
       </c>
-      <c r="E5" t="n">
-        <v>59.57</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>70.39</v>
+      </c>
+      <c r="I5" t="n">
+        <v>61.17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>71.14</v>
+      </c>
+      <c r="K5" t="n">
+        <v>52.19</v>
+      </c>
+      <c r="L5" t="n">
+        <v>42.32</v>
+      </c>
+      <c r="M5" t="n">
         <v>66.41</v>
-      </c>
-      <c r="G5" t="n">
-        <v>73.23</v>
-      </c>
-      <c r="H5" t="n">
-        <v>71.14</v>
-      </c>
-      <c r="I5" t="n">
-        <v>70.39</v>
-      </c>
-      <c r="J5" t="n">
-        <v>61.17</v>
-      </c>
-      <c r="K5" t="n">
-        <v>62.39</v>
-      </c>
-      <c r="L5" t="n">
-        <v>52.19</v>
-      </c>
-      <c r="M5" t="n">
-        <v>54.35</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.52</v>
+        <v>51.3</v>
       </c>
       <c r="C6" t="n">
         <v>73.43000000000001</v>
       </c>
       <c r="D6" t="n">
+        <v>56.83</v>
+      </c>
+      <c r="E6" t="n">
+        <v>63.67</v>
+      </c>
+      <c r="F6" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="G6" t="n">
         <v>56.52</v>
       </c>
-      <c r="E6" t="n">
-        <v>51.3</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
+        <v>67.16</v>
+      </c>
+      <c r="I6" t="n">
+        <v>50.13</v>
+      </c>
+      <c r="J6" t="n">
+        <v>69.14</v>
+      </c>
+      <c r="K6" t="n">
+        <v>49.11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>35.52</v>
+      </c>
+      <c r="M6" t="n">
         <v>64.54000000000001</v>
-      </c>
-      <c r="G6" t="n">
-        <v>63.67</v>
-      </c>
-      <c r="H6" t="n">
-        <v>69.14</v>
-      </c>
-      <c r="I6" t="n">
-        <v>67.16</v>
-      </c>
-      <c r="J6" t="n">
-        <v>50.13</v>
-      </c>
-      <c r="K6" t="n">
-        <v>56.83</v>
-      </c>
-      <c r="L6" t="n">
-        <v>49.11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>47.1</v>
       </c>
     </row>
     <row r="7">
@@ -717,21 +717,33 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.73</v>
+        <v>59.99</v>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>64.64</v>
+      </c>
+      <c r="E7" t="n">
+        <v>75.09999999999999</v>
+      </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>61.56</v>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>70.33</v>
+      </c>
       <c r="K7" t="n">
-        <v>64.64</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+        <v>53.67</v>
+      </c>
+      <c r="L7" t="n">
+        <v>46.73</v>
+      </c>
+      <c r="M7" t="n">
+        <v>67.38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/overview/summary_all_F1.xlsx
+++ b/results/overview/summary_all_F1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,313 +436,356 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>reddit</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>patio_lawn_garden</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>twitter</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>lidl</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>automotive</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ikea_reviews</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>luxury_beauty</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>instant_video</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>twitter</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>automotive</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>luxury_beauty</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>patio_lawn_garden</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>musical_instruments</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>reddit</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>office_products</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>ikea_reviews</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hotel</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>drugs</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>lidl</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>ComplementNB</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.86</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>56.07</v>
+        <v>50.43</v>
       </c>
       <c r="D2" t="n">
-        <v>54.25</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>52.91</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>37.53</v>
+        <v>60.71</v>
       </c>
       <c r="G2" t="n">
-        <v>55.15</v>
+        <v>66.39</v>
       </c>
       <c r="H2" t="n">
-        <v>61.4</v>
+        <v>67.42</v>
       </c>
       <c r="I2" t="n">
-        <v>41.09</v>
+        <v>56.23</v>
       </c>
       <c r="J2" t="n">
-        <v>60.46</v>
+        <v>58.72</v>
       </c>
       <c r="K2" t="n">
-        <v>31.84</v>
+        <v>56.27</v>
       </c>
       <c r="L2" t="n">
-        <v>17.92</v>
+        <v>50.16</v>
       </c>
       <c r="M2" t="n">
-        <v>51.33</v>
+        <v>37.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ComplementNB</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.31</v>
+        <v>60.37</v>
       </c>
       <c r="C3" t="n">
-        <v>77.93000000000001</v>
+        <v>42.8</v>
       </c>
       <c r="D3" t="n">
-        <v>61.6</v>
+        <v>67.69</v>
       </c>
       <c r="E3" t="n">
-        <v>67.3</v>
+        <v>58.7</v>
       </c>
       <c r="F3" t="n">
-        <v>50.01</v>
+        <v>55.36</v>
       </c>
       <c r="G3" t="n">
-        <v>60.54</v>
+        <v>60.76</v>
       </c>
       <c r="H3" t="n">
-        <v>67.27</v>
+        <v>64.52</v>
       </c>
       <c r="I3" t="n">
-        <v>56.41</v>
+        <v>45.84</v>
       </c>
       <c r="J3" t="n">
-        <v>66.84999999999999</v>
+        <v>56.07</v>
       </c>
       <c r="K3" t="n">
-        <v>49.91</v>
+        <v>46.38</v>
       </c>
       <c r="L3" t="n">
-        <v>37.83</v>
+        <v>39.48</v>
       </c>
       <c r="M3" t="n">
-        <v>64.22</v>
+        <v>33.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>LR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.84</v>
+        <v>70.39</v>
       </c>
       <c r="C4" t="n">
-        <v>67.69</v>
+        <v>54.35</v>
       </c>
       <c r="D4" t="n">
-        <v>55.36</v>
+        <v>80.56</v>
       </c>
       <c r="E4" t="n">
-        <v>64.52</v>
+        <v>66.41</v>
       </c>
       <c r="F4" t="n">
-        <v>42.8</v>
+        <v>62.39</v>
       </c>
       <c r="G4" t="n">
-        <v>56.07</v>
+        <v>71.14</v>
       </c>
       <c r="H4" t="n">
-        <v>60.37</v>
+        <v>73.23</v>
       </c>
       <c r="I4" t="n">
-        <v>46.38</v>
+        <v>59.57</v>
       </c>
       <c r="J4" t="n">
-        <v>60.76</v>
+        <v>62.56</v>
       </c>
       <c r="K4" t="n">
-        <v>39.48</v>
+        <v>61.17</v>
       </c>
       <c r="L4" t="n">
-        <v>33.99</v>
+        <v>52.19</v>
       </c>
       <c r="M4" t="n">
-        <v>58.7</v>
+        <v>42.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>LR</t>
+          <t>MultinomialNB</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59.57</v>
+        <v>67.16</v>
       </c>
       <c r="C5" t="n">
-        <v>80.56</v>
+        <v>47.1</v>
       </c>
       <c r="D5" t="n">
-        <v>62.39</v>
+        <v>73.43000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>73.23</v>
+        <v>64.54000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>54.35</v>
+        <v>56.83</v>
       </c>
       <c r="G5" t="n">
-        <v>62.56</v>
+        <v>69.14</v>
       </c>
       <c r="H5" t="n">
-        <v>70.39</v>
+        <v>63.67</v>
       </c>
       <c r="I5" t="n">
-        <v>61.17</v>
+        <v>51.3</v>
       </c>
       <c r="J5" t="n">
-        <v>71.14</v>
+        <v>56.52</v>
       </c>
       <c r="K5" t="n">
-        <v>52.19</v>
+        <v>50.13</v>
       </c>
       <c r="L5" t="n">
-        <v>42.32</v>
+        <v>49.11</v>
       </c>
       <c r="M5" t="n">
-        <v>66.41</v>
+        <v>35.52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MultinomialNB</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51.3</v>
+        <v>61.4</v>
       </c>
       <c r="C6" t="n">
-        <v>73.43000000000001</v>
+        <v>37.53</v>
       </c>
       <c r="D6" t="n">
-        <v>56.83</v>
+        <v>56.07</v>
       </c>
       <c r="E6" t="n">
-        <v>63.67</v>
+        <v>51.33</v>
       </c>
       <c r="F6" t="n">
-        <v>47.1</v>
+        <v>54.25</v>
       </c>
       <c r="G6" t="n">
-        <v>56.52</v>
+        <v>60.46</v>
       </c>
       <c r="H6" t="n">
-        <v>67.16</v>
+        <v>52.91</v>
       </c>
       <c r="I6" t="n">
-        <v>50.13</v>
+        <v>41.86</v>
       </c>
       <c r="J6" t="n">
-        <v>69.14</v>
+        <v>55.15</v>
       </c>
       <c r="K6" t="n">
-        <v>49.11</v>
+        <v>41.09</v>
       </c>
       <c r="L6" t="n">
-        <v>35.52</v>
+        <v>31.84</v>
       </c>
       <c r="M6" t="n">
-        <v>64.54000000000001</v>
+        <v>17.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>setfit</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>58.99</v>
+      </c>
+      <c r="C7" t="n">
+        <v>63.57</v>
+      </c>
+      <c r="D7" t="n">
+        <v>73.31999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>53.21</v>
+      </c>
+      <c r="F7" t="n">
+        <v>59.24</v>
+      </c>
+      <c r="G7" t="n">
+        <v>67.37</v>
+      </c>
+      <c r="H7" t="n">
+        <v>69.56</v>
+      </c>
+      <c r="I7" t="n">
+        <v>67.06</v>
+      </c>
+      <c r="J7" t="n">
+        <v>73.31999999999999</v>
+      </c>
+      <c r="K7" t="n">
+        <v>68.11</v>
+      </c>
+      <c r="L7" t="n">
+        <v>71.06999999999999</v>
+      </c>
+      <c r="M7" t="n">
+        <v>58.61</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>SVM</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>67.38</v>
+      </c>
+      <c r="F8" t="n">
+        <v>64.64</v>
+      </c>
+      <c r="G8" t="n">
+        <v>70.33</v>
+      </c>
+      <c r="H8" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="I8" t="n">
         <v>59.99</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>64.64</v>
-      </c>
-      <c r="E7" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
+      <c r="J8" t="n">
         <v>61.56</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>70.33</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
         <v>53.67</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M8" t="n">
         <v>46.73</v>
-      </c>
-      <c r="M7" t="n">
-        <v>67.38</v>
       </c>
     </row>
   </sheetData>

--- a/results/overview/summary_all_F1.xlsx
+++ b/results/overview/summary_all_F1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,57 +436,57 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>lidl</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>instant_video</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>office_products</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>luxury_beauty</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hotel</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>musical_instruments</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>automotive</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>reddit</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>twitter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ikea_reviews</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>patio_lawn_garden</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>twitter</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lidl</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>automotive</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ikea_reviews</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>luxury_beauty</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>instant_video</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>musical_instruments</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>office_products</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>hotel</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -498,293 +498,574 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ComplementNB</t>
+          <t>siebert</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.95999999999999</v>
+        <v>70.23999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>50.43</v>
+        <v>70.89</v>
       </c>
       <c r="D2" t="n">
-        <v>78.01000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="E2" t="n">
-        <v>64.09999999999999</v>
+        <v>79.83</v>
       </c>
       <c r="F2" t="n">
-        <v>60.71</v>
+        <v>60.27</v>
       </c>
       <c r="G2" t="n">
-        <v>66.39</v>
+        <v>72.95</v>
       </c>
       <c r="H2" t="n">
-        <v>67.42</v>
+        <v>74.04000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>56.23</v>
+        <v>73.47</v>
       </c>
       <c r="J2" t="n">
-        <v>58.72</v>
+        <v>86.15000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>56.27</v>
+        <v>72.42</v>
       </c>
       <c r="L2" t="n">
-        <v>50.16</v>
+        <v>66.06</v>
       </c>
       <c r="M2" t="n">
-        <v>37.83</v>
+        <v>42.13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.37</v>
+        <v>67.06</v>
       </c>
       <c r="C3" t="n">
-        <v>42.8</v>
+        <v>60.63</v>
       </c>
       <c r="D3" t="n">
-        <v>67.69</v>
+        <v>60.27</v>
       </c>
       <c r="E3" t="n">
-        <v>58.7</v>
+        <v>73.63</v>
       </c>
       <c r="F3" t="n">
-        <v>55.36</v>
+        <v>51.38</v>
       </c>
       <c r="G3" t="n">
-        <v>60.76</v>
+        <v>62.3</v>
       </c>
       <c r="H3" t="n">
-        <v>64.52</v>
+        <v>63.05</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84</v>
+        <v>69.72</v>
       </c>
       <c r="J3" t="n">
-        <v>56.07</v>
+        <v>78.84</v>
       </c>
       <c r="K3" t="n">
-        <v>46.38</v>
+        <v>70.53</v>
       </c>
       <c r="L3" t="n">
-        <v>39.48</v>
+        <v>52.84</v>
       </c>
       <c r="M3" t="n">
-        <v>33.99</v>
+        <v>43.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>LR</t>
+          <t>few_shot_gpt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.39</v>
+        <v>35.61</v>
       </c>
       <c r="C4" t="n">
-        <v>54.35</v>
+        <v>21.76</v>
       </c>
       <c r="D4" t="n">
-        <v>80.56</v>
+        <v>37.75</v>
       </c>
       <c r="E4" t="n">
-        <v>66.41</v>
+        <v>30.43</v>
       </c>
       <c r="F4" t="n">
-        <v>62.39</v>
+        <v>35.83</v>
       </c>
       <c r="G4" t="n">
-        <v>71.14</v>
+        <v>32.09</v>
       </c>
       <c r="H4" t="n">
-        <v>73.23</v>
+        <v>18.46</v>
       </c>
       <c r="I4" t="n">
-        <v>59.57</v>
+        <v>36.81</v>
       </c>
       <c r="J4" t="n">
-        <v>62.56</v>
+        <v>63.6</v>
       </c>
       <c r="K4" t="n">
-        <v>61.17</v>
+        <v>38.17</v>
       </c>
       <c r="L4" t="n">
-        <v>52.19</v>
+        <v>20.76</v>
       </c>
       <c r="M4" t="n">
-        <v>42.32</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MultinomialNB</t>
+          <t>nlptown</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67.16</v>
+        <v>70.26000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>47.1</v>
+        <v>67.37</v>
       </c>
       <c r="D5" t="n">
-        <v>73.43000000000001</v>
+        <v>70.18000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>64.54000000000001</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>56.83</v>
+        <v>59.36</v>
       </c>
       <c r="G5" t="n">
-        <v>69.14</v>
+        <v>74.73</v>
       </c>
       <c r="H5" t="n">
-        <v>63.67</v>
+        <v>71.08</v>
       </c>
       <c r="I5" t="n">
-        <v>51.3</v>
+        <v>72.58</v>
       </c>
       <c r="J5" t="n">
-        <v>56.52</v>
+        <v>80.97</v>
       </c>
       <c r="K5" t="n">
-        <v>50.13</v>
+        <v>75.41</v>
       </c>
       <c r="L5" t="n">
-        <v>49.11</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>35.52</v>
+        <v>37.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.4</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>37.53</v>
+        <v>65.17</v>
       </c>
       <c r="D6" t="n">
-        <v>56.07</v>
+        <v>63.67</v>
       </c>
       <c r="E6" t="n">
-        <v>51.33</v>
+        <v>74.7</v>
       </c>
       <c r="F6" t="n">
-        <v>54.25</v>
+        <v>57.86</v>
       </c>
       <c r="G6" t="n">
-        <v>60.46</v>
+        <v>65.91</v>
       </c>
       <c r="H6" t="n">
-        <v>52.91</v>
+        <v>67.75</v>
       </c>
       <c r="I6" t="n">
-        <v>41.86</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>55.15</v>
+        <v>80.89</v>
       </c>
       <c r="K6" t="n">
-        <v>41.09</v>
+        <v>72.56</v>
       </c>
       <c r="L6" t="n">
-        <v>31.84</v>
+        <v>48.86</v>
       </c>
       <c r="M6" t="n">
-        <v>17.92</v>
+        <v>39.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>setfit</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.99</v>
+        <v>51.33</v>
       </c>
       <c r="C7" t="n">
-        <v>63.57</v>
+        <v>41.86</v>
       </c>
       <c r="D7" t="n">
-        <v>73.31999999999999</v>
+        <v>41.09</v>
       </c>
       <c r="E7" t="n">
-        <v>53.21</v>
+        <v>52.91</v>
       </c>
       <c r="F7" t="n">
-        <v>59.24</v>
+        <v>31.84</v>
       </c>
       <c r="G7" t="n">
-        <v>67.37</v>
+        <v>55.15</v>
       </c>
       <c r="H7" t="n">
-        <v>69.56</v>
+        <v>54.25</v>
       </c>
       <c r="I7" t="n">
-        <v>67.06</v>
+        <v>61.4</v>
       </c>
       <c r="J7" t="n">
-        <v>73.31999999999999</v>
+        <v>56.07</v>
       </c>
       <c r="K7" t="n">
-        <v>68.11</v>
+        <v>60.46</v>
       </c>
       <c r="L7" t="n">
-        <v>71.06999999999999</v>
+        <v>37.53</v>
       </c>
       <c r="M7" t="n">
-        <v>58.61</v>
+        <v>17.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>distilbert</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>63.32</v>
+      </c>
+      <c r="C8" t="n">
+        <v>54.92</v>
+      </c>
+      <c r="D8" t="n">
+        <v>58.76</v>
+      </c>
+      <c r="E8" t="n">
+        <v>63.55</v>
+      </c>
+      <c r="F8" t="n">
+        <v>38.42</v>
+      </c>
+      <c r="G8" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="H8" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="I8" t="n">
+        <v>69.58</v>
+      </c>
+      <c r="J8" t="n">
+        <v>81.89</v>
+      </c>
+      <c r="K8" t="n">
+        <v>65.66</v>
+      </c>
+      <c r="L8" t="n">
+        <v>52.49</v>
+      </c>
+      <c r="M8" t="n">
+        <v>29.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>62.59</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>39.46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ComplementNB</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>56.23</v>
+      </c>
+      <c r="D10" t="n">
+        <v>56.27</v>
+      </c>
+      <c r="E10" t="n">
+        <v>67.42</v>
+      </c>
+      <c r="F10" t="n">
+        <v>50.16</v>
+      </c>
+      <c r="G10" t="n">
+        <v>58.72</v>
+      </c>
+      <c r="H10" t="n">
+        <v>60.71</v>
+      </c>
+      <c r="I10" t="n">
+        <v>66.95999999999999</v>
+      </c>
+      <c r="J10" t="n">
+        <v>78.01000000000001</v>
+      </c>
+      <c r="K10" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="L10" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="M10" t="n">
+        <v>37.83</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Decision Tree</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>45.84</v>
+      </c>
+      <c r="D11" t="n">
+        <v>46.38</v>
+      </c>
+      <c r="E11" t="n">
+        <v>64.52</v>
+      </c>
+      <c r="F11" t="n">
+        <v>39.48</v>
+      </c>
+      <c r="G11" t="n">
+        <v>56.07</v>
+      </c>
+      <c r="H11" t="n">
+        <v>55.36</v>
+      </c>
+      <c r="I11" t="n">
+        <v>60.37</v>
+      </c>
+      <c r="J11" t="n">
+        <v>67.69</v>
+      </c>
+      <c r="K11" t="n">
+        <v>60.76</v>
+      </c>
+      <c r="L11" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>setfit</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>31.98</v>
+      </c>
+      <c r="C12" t="n">
+        <v>33.08</v>
+      </c>
+      <c r="D12" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="E12" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="F12" t="n">
+        <v>38.65</v>
+      </c>
+      <c r="G12" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="H12" t="n">
+        <v>42.36</v>
+      </c>
+      <c r="I12" t="n">
+        <v>31.36</v>
+      </c>
+      <c r="J12" t="n">
+        <v>73.06999999999999</v>
+      </c>
+      <c r="K12" t="n">
+        <v>35.11</v>
+      </c>
+      <c r="L12" t="n">
+        <v>33.25</v>
+      </c>
+      <c r="M12" t="n">
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>66.41</v>
+      </c>
+      <c r="C13" t="n">
+        <v>59.57</v>
+      </c>
+      <c r="D13" t="n">
+        <v>61.17</v>
+      </c>
+      <c r="E13" t="n">
+        <v>73.23</v>
+      </c>
+      <c r="F13" t="n">
+        <v>52.19</v>
+      </c>
+      <c r="G13" t="n">
+        <v>62.56</v>
+      </c>
+      <c r="H13" t="n">
+        <v>62.39</v>
+      </c>
+      <c r="I13" t="n">
+        <v>70.39</v>
+      </c>
+      <c r="J13" t="n">
+        <v>80.56</v>
+      </c>
+      <c r="K13" t="n">
+        <v>71.14</v>
+      </c>
+      <c r="L13" t="n">
+        <v>54.35</v>
+      </c>
+      <c r="M13" t="n">
+        <v>42.32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>MultinomialNB</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>64.54000000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50.13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>63.67</v>
+      </c>
+      <c r="F14" t="n">
+        <v>49.11</v>
+      </c>
+      <c r="G14" t="n">
+        <v>56.52</v>
+      </c>
+      <c r="H14" t="n">
+        <v>56.83</v>
+      </c>
+      <c r="I14" t="n">
+        <v>67.16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>73.43000000000001</v>
+      </c>
+      <c r="K14" t="n">
+        <v>69.14</v>
+      </c>
+      <c r="L14" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>35.52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
           <t>SVM</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
+      <c r="B15" t="n">
         <v>67.38</v>
       </c>
-      <c r="F8" t="n">
+      <c r="C15" t="n">
+        <v>59.99</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>53.67</v>
+      </c>
+      <c r="G15" t="n">
+        <v>61.56</v>
+      </c>
+      <c r="H15" t="n">
         <v>64.64</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
         <v>70.33</v>
       </c>
-      <c r="H8" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="I8" t="n">
-        <v>59.99</v>
-      </c>
-      <c r="J8" t="n">
-        <v>61.56</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>53.67</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>46.73</v>
       </c>
     </row>
